--- a/Versuch5_Messungen/Versuch5.xlsx
+++ b/Versuch5_Messungen/Versuch5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSS\SSS_aufgaben\Versuch5_Messungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F9263-B731-414D-8006-AE4F70CA2927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFEE9AE-6104-4C0A-B833-F2884E77524F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{A110E7BB-1C31-4E4D-896B-75A655D3FCEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A110E7BB-1C31-4E4D-896B-75A655D3FCEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Teil 1" sheetId="1" r:id="rId1"/>
@@ -464,13 +464,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,7 +486,7 @@
         <v>1.044921875</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>2.001953125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>3.0078125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -510,7 +510,7 @@
         <v>4.052734375</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,20 +527,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FA3226-1DDB-4DB7-9D5D-0AAD8368153E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -628,7 +628,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -662,7 +662,7 @@
         <v>6.1150000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -679,7 +679,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -713,7 +713,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -743,12 +743,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1.512</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2.0579999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5</v>
       </c>
@@ -796,7 +796,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -804,7 +804,7 @@
         <v>3.1280000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.5</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3.556</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4.117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
@@ -828,7 +828,7 @@
         <v>4.6769999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -845,20 +845,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B4C1E-59D4-42DC-A258-2DE7C986EE07}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6000</v>
       </c>
@@ -889,37 +889,37 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>1750</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>4750</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>2500</v>
       </c>
